--- a/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
+++ b/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Bitacoras\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0C9BD5-D408-4065-8BC4-362F0E79C8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D4B30-CC3D-4EC7-8DB7-2205954E86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="840" windowWidth="17415" windowHeight="9705" activeTab="1" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,6 +247,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,19 +586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA2C3-0AB5-4100-B988-15F96676F5E9}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="4"/>
+    <col min="6" max="9" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +627,11 @@
       <c r="I1" s="3">
         <v>45314</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>80178045</v>
       </c>
@@ -644,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20197413</v>
       </c>
@@ -663,8 +670,11 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20270657</v>
       </c>
@@ -681,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80204265</v>
       </c>
@@ -701,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20228454</v>
       </c>
@@ -720,8 +730,11 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20194829</v>
       </c>
@@ -737,8 +750,11 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20195555</v>
       </c>
@@ -755,7 +771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20198334</v>
       </c>
@@ -775,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10188042</v>
       </c>
@@ -794,8 +810,11 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80209587</v>
       </c>
@@ -811,8 +830,11 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10185845</v>
       </c>
@@ -829,7 +851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20184819</v>
       </c>
@@ -844,6 +866,9 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2005CDA5-CF18-42C1-AA37-731C9B285BE4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
+++ b/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Bitacoras\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D4B30-CC3D-4EC7-8DB7-2205954E86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF613C-2362-4FEA-B563-40D14CD7A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
     <sheet name="Concentrado" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concentrado!$A$2:$V$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Matrícula</t>
   </si>
@@ -196,13 +199,61 @@
   </si>
   <si>
     <t>P5_Encuadre</t>
+  </si>
+  <si>
+    <t>P4_Reporte</t>
+  </si>
+  <si>
+    <t>P5_Marco</t>
+  </si>
+  <si>
+    <t>P5_Reporte</t>
+  </si>
+  <si>
+    <t>P6_Encuadre</t>
+  </si>
+  <si>
+    <t>P6_Marco</t>
+  </si>
+  <si>
+    <t>P6_Montaje</t>
+  </si>
+  <si>
+    <t>P6_Reporte</t>
+  </si>
+  <si>
+    <t>P7_Encuadre</t>
+  </si>
+  <si>
+    <t>P7_Marco</t>
+  </si>
+  <si>
+    <t>P7_Montaje</t>
+  </si>
+  <si>
+    <t>P7_Reporte</t>
+  </si>
+  <si>
+    <t>P8_Encuadre</t>
+  </si>
+  <si>
+    <t>P5_Montaje</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +262,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,11 +310,49 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -586,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA2C3-0AB5-4100-B988-15F96676F5E9}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,9 +693,14 @@
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +731,29 @@
       <c r="J1" s="5">
         <v>45321</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5">
+        <v>45328</v>
+      </c>
+      <c r="L1" s="5">
+        <v>45335</v>
+      </c>
+      <c r="M1" s="6">
+        <v>45342</v>
+      </c>
+      <c r="N1" s="5">
+        <v>45349</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="6">
+        <v>45344</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>80178045</v>
       </c>
@@ -650,8 +772,15 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O2" s="2">
+        <f>SUM(F2:N2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20197413</v>
       </c>
@@ -673,8 +802,12 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O13" si="0">SUM(F3:N3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20270657</v>
       </c>
@@ -690,8 +823,15 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80204265</v>
       </c>
@@ -710,8 +850,18 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20228454</v>
       </c>
@@ -733,8 +883,12 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20194829</v>
       </c>
@@ -753,8 +907,12 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20195555</v>
       </c>
@@ -770,8 +928,12 @@
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20198334</v>
       </c>
@@ -790,8 +952,15 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10188042</v>
       </c>
@@ -813,8 +982,12 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80209587</v>
       </c>
@@ -830,11 +1003,15 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10185845</v>
       </c>
@@ -850,8 +1027,12 @@
       <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20184819</v>
       </c>
@@ -868,6 +1049,10 @@
         <v>51</v>
       </c>
       <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -878,279 +1063,941 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2005CDA5-CF18-42C1-AA37-731C9B285BE4}">
-  <dimension ref="A1:F13"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="8460" ySplit="1080" topLeftCell="T14" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2">
+        <f>SUM(F1:S1)</f>
+        <v>60</v>
+      </c>
+      <c r="U1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>80178045</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2">
+        <f>SUM(F3:S3)</f>
+        <v>55</v>
+      </c>
+      <c r="U3" s="8">
+        <f>(T3/$T$1)*10</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>20197413</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T14" si="0">SUM(F4:S4)</f>
+        <v>50.5</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" ref="U4:U14" si="1">(T4/$T$1)*10</f>
+        <v>8.4166666666666661</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20270657</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>80204265</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20228454</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="1"/>
+        <v>8.9166666666666679</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>20194829</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>5</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20195555</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>20198334</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="1"/>
+        <v>5.4166666666666661</v>
+      </c>
+      <c r="V10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10188042</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2">
+        <v>5</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>80209587</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10185845</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>5</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>20184819</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="4">
-        <v>5</v>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" si="1"/>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:V14" xr:uid="{2005CDA5-CF18-42C1-AA37-731C9B285BE4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="YAÑEZ VILLEGAS RUBI LILIANA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="F3:O14">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
+++ b/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Bitacoras\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF613C-2362-4FEA-B563-40D14CD7A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C2DBD4-A5ED-479E-9DEF-89D65B6D4F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="840" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA2C3-0AB5-4100-B988-15F96676F5E9}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,9 +698,10 @@
     <col min="14" max="15" width="6.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,8 +753,11 @@
       <c r="Q1" s="5">
         <v>45348</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="5">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>80178045</v>
       </c>
@@ -780,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20197413</v>
       </c>
@@ -807,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20270657</v>
       </c>
@@ -831,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80204265</v>
       </c>
@@ -860,8 +864,11 @@
       <c r="Q5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20228454</v>
       </c>
@@ -888,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20194829</v>
       </c>
@@ -912,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20195555</v>
       </c>
@@ -933,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20198334</v>
       </c>
@@ -960,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10188042</v>
       </c>
@@ -986,8 +993,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80209587</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10185845</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20184819</v>
       </c>
@@ -1063,14 +1073,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2005CDA5-CF18-42C1-AA37-731C9B285BE4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8460" ySplit="1080" topLeftCell="T14" activePane="bottomRight"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="6270" ySplit="1080" topLeftCell="U1" activePane="bottomRight"/>
+      <selection activeCell="E17" sqref="E17"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>80178045</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20197413</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20270657</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80204265</v>
       </c>
@@ -1463,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20228454</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20194829</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20195555</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>20198334</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10188042</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>80209587</v>
       </c>
@@ -1847,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10185845</v>
       </c>
@@ -1976,13 +1986,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V14" xr:uid="{2005CDA5-CF18-42C1-AA37-731C9B285BE4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="YAÑEZ VILLEGAS RUBI LILIANA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:V14" xr:uid="{2005CDA5-CF18-42C1-AA37-731C9B285BE4}"/>
   <conditionalFormatting sqref="F3:O14">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>

--- a/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
+++ b/Bitacoras/Parcial_03/Bitacora_Laboratorio_Fisica_IV_NRC_95_Parcial_03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Bitacoras\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C2DBD4-A5ED-479E-9DEF-89D65B6D4F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338BEBB-6098-421C-B852-F34D5BE6D829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="840" xr2:uid="{5A885302-ACD9-4B6A-A6FB-2597D2976EB6}"/>
   </bookViews>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA2C3-0AB5-4100-B988-15F96676F5E9}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
     <col min="18" max="18" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,8 +756,11 @@
       <c r="R1" s="5">
         <v>45384</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="6">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>80178045</v>
       </c>
@@ -783,8 +786,11 @@
       <c r="Q2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20197413</v>
       </c>
@@ -811,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20270657</v>
       </c>
@@ -835,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80204265</v>
       </c>
@@ -868,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20228454</v>
       </c>
@@ -895,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20194829</v>
       </c>
@@ -919,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20195555</v>
       </c>
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20198334</v>
       </c>
@@ -966,8 +972,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10188042</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80209587</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10185845</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20184819</v>
       </c>
